--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/テーブル一覧_A1_プロジェクト管理システム.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/070_データモデル設計/テーブル一覧_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6DCB75-7789-4EF1-ABDA-70C91BDED72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04D115F-322E-4D8C-A5CE-EE40861046E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="1" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AI$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="97">
   <si>
     <t>PJ名</t>
   </si>
@@ -53,14 +53,14 @@
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
@@ -70,21 +70,21 @@
     <rPh sb="0" eb="2">
       <t>ハンスウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更日</t>
     <rPh sb="0" eb="3">
       <t>ヘンコウビ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>変更内容</t>
@@ -94,35 +94,35 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>主管サブシステム</t>
     <rPh sb="0" eb="2">
       <t>シュカン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>サブシステム名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>論理テーブル名</t>
@@ -132,7 +132,7 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>物理テーブル名</t>
@@ -142,11 +142,11 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>成果物名</t>
@@ -159,68 +159,68 @@
   </si>
   <si>
     <t>成果物名</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1. テーブル一覧</t>
     <rPh sb="7" eb="9">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>PJ名</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>サンプルプロジェクト</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>サンプルシステム</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>No.</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
+    <t>PJ名</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>サンプルプロジェクト</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>サンプルシステム</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>1.0版</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>新規</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>(新規作成)</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
       <t>モクジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>テーブル一覧</t>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更箇所（項番等）</t>
@@ -233,7 +233,7 @@
     <rPh sb="5" eb="8">
       <t>コウバンナド</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>システムアカウント</t>
@@ -270,19 +270,19 @@
     <rPh sb="6" eb="8">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>組織</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ORGANIZATION</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロジェクト管理システム</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>業務日付</t>
@@ -379,277 +379,21 @@
   </si>
   <si>
     <t>BATCH_STEP_EXECUTION_CONTEXT</t>
-  </si>
-  <si>
-    <r>
-      <t>A2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>1.1版</t>
     <rPh sb="3" eb="4">
       <t>ハン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1. テーブル一覧</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>TIS</t>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Spring Session、Spring Batchが使用するテーブルを追加</t>
@@ -659,14 +403,7 @@
     <rPh sb="37" eb="39">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <r>
@@ -681,7 +418,105 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>常駐バッチの状態管理テーブルを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>常駐バッチ状態管理</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>RESIDENT_BATCH_STATE</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>PROJECTS_BY_USER</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト作成要求</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>PROJECTS_BY_USER_REQUEST</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザ別従事プロジェクト、ユーザ別従事プロジェクト作成要求を追加</t>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -692,20 +527,12 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1057,132 +884,132 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,235 +1021,265 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1431,58 +1288,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,15 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2271,7 +2119,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="J23" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2283,12 +2131,12 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="52">
+      <c r="I25" s="53">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44690</v>
-      </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
+        <v>44869</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="19"/>
@@ -2872,7 +2720,7 @@
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.39370078740157477" bottom="0.39370078740157477" header="0.19685039370078738" footer="0.19685039370078738"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2897,57 +2745,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="69" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="78" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="60" t="s">
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="87" t="str">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="88" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="53">
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="54">
         <f>IF(D8="","",D8)</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="56"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2955,53 +2803,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="60" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="66" t="str">
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="67" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="53">
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="54">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="55"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -3009,45 +2857,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="90" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="55"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -3084,1042 +2932,1070 @@
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="56" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="59" t="s">
+      <c r="H7" s="59"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="56" t="s">
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="56" t="s">
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="58"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="57"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43592</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="114" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="116"/>
-      <c r="AF8" s="111" t="s">
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
     </row>
     <row r="9" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93">
+      <c r="B9" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94">
         <v>44690</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="96"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="99"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="100"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="99"/>
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94">
+        <v>44867</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="121" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="100"/>
     </row>
     <row r="11" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="99"/>
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94">
+        <v>44869</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="97"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="100"/>
     </row>
     <row r="12" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="101"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="99"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="100"/>
     </row>
     <row r="13" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="99"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="100"/>
     </row>
     <row r="14" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="99"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="100"/>
     </row>
     <row r="15" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="99"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="100"/>
     </row>
     <row r="16" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="99"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="100"/>
     </row>
     <row r="17" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="99"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
     </row>
     <row r="18" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="99"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="100"/>
     </row>
     <row r="19" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="99"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
     </row>
     <row r="20" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="99"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="100"/>
     </row>
     <row r="21" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="100"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="99"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="100"/>
     </row>
     <row r="22" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="99"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="100"/>
     </row>
     <row r="23" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="102"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="99"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
     </row>
     <row r="24" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="101"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="99"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
     </row>
     <row r="25" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="99"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100"/>
     </row>
     <row r="26" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="101"/>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="99"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="100"/>
     </row>
     <row r="27" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="99"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
     </row>
     <row r="28" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="102"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="99"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="100"/>
     </row>
     <row r="29" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="102"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="99"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="100"/>
     </row>
     <row r="30" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="102"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="99"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="100"/>
     </row>
     <row r="31" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="102"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="99"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
     </row>
     <row r="32" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="99"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
     </row>
     <row r="33" spans="1:35" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="102"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="99"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="100"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="27"/>
@@ -4306,7 +4182,7 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -4461,163 +4337,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="str">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="69" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="78" t="str">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="79" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>テーブル一覧</v>
       </c>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="121" t="s">
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="87" t="str">
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="118">
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="124">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="120"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="str">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="121" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="87" t="str">
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="118">
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="124">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="120"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="str">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="87" t="str">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="118" t="str">
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="120"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -5913,7 +5789,7 @@
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5926,7 +5802,7 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -5942,161 +5818,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63" t="str">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="131" t="s">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="140" t="str">
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>テーブル一覧</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="141"/>
-      <c r="W1" s="141"/>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="60" t="s">
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="87" t="str">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="118">
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="124">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43592</v>
       </c>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="120"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="str">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="60" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="87" t="str">
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="118">
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="124">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="119"/>
-      <c r="AI2" s="120"/>
+        <v>44869</v>
+      </c>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="str">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="146"/>
-      <c r="T3" s="147"/>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="147"/>
-      <c r="Z3" s="148"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="87" t="str">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="118" t="str">
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="124" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="120"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="126"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
@@ -6110,162 +5986,162 @@
     </row>
     <row r="7" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="149" t="s">
+      <c r="D8" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152" t="s">
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="152" t="s">
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="164"/>
+      <c r="S8" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="153"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="149" t="s">
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="164"/>
+      <c r="AB8" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="151"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="160"/>
+      <c r="AG8" s="160"/>
+      <c r="AH8" s="161"/>
     </row>
     <row r="9" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="130"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="156"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="156"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="156"/>
-      <c r="U9" s="156"/>
-      <c r="V9" s="156"/>
-      <c r="W9" s="156"/>
-      <c r="X9" s="156"/>
-      <c r="Y9" s="156"/>
-      <c r="Z9" s="156"/>
-      <c r="AA9" s="157"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="151"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="159"/>
+      <c r="AC9" s="160"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="161"/>
     </row>
     <row r="10" spans="1:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="50">
         <v>1</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126" t="s">
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="127" t="s">
+      <c r="K10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="127" t="s">
+      <c r="L10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="127" t="s">
+      <c r="M10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="127" t="s">
+      <c r="N10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="O10" s="127" t="s">
+      <c r="O10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="127" t="s">
+      <c r="P10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="127" t="s">
+      <c r="Q10" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="128" t="s">
+      <c r="R10" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="126" t="s">
+      <c r="S10" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="127" t="s">
+      <c r="T10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="U10" s="127" t="s">
+      <c r="U10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="127" t="s">
+      <c r="V10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="W10" s="127" t="s">
+      <c r="W10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="X10" s="127" t="s">
+      <c r="X10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="Y10" s="127" t="s">
+      <c r="Y10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="127" t="s">
+      <c r="Z10" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="AA10" s="128" t="s">
+      <c r="AA10" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="123"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="124"/>
-      <c r="AG10" s="124"/>
-      <c r="AH10" s="125"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="135"/>
       <c r="AI10"/>
     </row>
     <row r="11" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6273,76 +6149,76 @@
         <v>2</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126" t="s">
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="127" t="s">
+      <c r="K11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="127" t="s">
+      <c r="L11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="127" t="s">
+      <c r="M11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="127" t="s">
+      <c r="N11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="127" t="s">
+      <c r="O11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="127" t="s">
+      <c r="P11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="127" t="s">
+      <c r="Q11" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="R11" s="128" t="s">
+      <c r="R11" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="126" t="s">
+      <c r="S11" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="127" t="s">
+      <c r="T11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="127" t="s">
+      <c r="U11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="127" t="s">
+      <c r="V11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="127" t="s">
+      <c r="W11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="127" t="s">
+      <c r="X11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="Y11" s="127" t="s">
+      <c r="Y11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="Z11" s="127" t="s">
+      <c r="Z11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="AA11" s="128" t="s">
+      <c r="AA11" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="124"/>
-      <c r="AE11" s="124"/>
-      <c r="AF11" s="124"/>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="125"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="134"/>
+      <c r="AD11" s="134"/>
+      <c r="AE11" s="134"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="135"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6350,152 +6226,152 @@
         <v>3</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126" t="s">
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="127" t="s">
+      <c r="L12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="127" t="s">
+      <c r="N12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="127" t="s">
+      <c r="O12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="127" t="s">
+      <c r="P12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="127" t="s">
+      <c r="Q12" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="128" t="s">
+      <c r="R12" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="126" t="s">
+      <c r="S12" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="T12" s="127" t="s">
+      <c r="T12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="127" t="s">
+      <c r="U12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="V12" s="127" t="s">
+      <c r="V12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="W12" s="127" t="s">
+      <c r="W12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="X12" s="127" t="s">
+      <c r="X12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="127" t="s">
+      <c r="Y12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="Z12" s="127" t="s">
+      <c r="Z12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="AA12" s="128" t="s">
+      <c r="AA12" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="AB12" s="123"/>
-      <c r="AC12" s="124"/>
-      <c r="AD12" s="124"/>
-      <c r="AE12" s="124"/>
-      <c r="AF12" s="124"/>
-      <c r="AG12" s="124"/>
-      <c r="AH12" s="125"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="135"/>
     </row>
     <row r="13" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="50">
         <v>4</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126" t="s">
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="127" t="s">
+      <c r="K13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="127" t="s">
+      <c r="L13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="127" t="s">
+      <c r="M13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="127" t="s">
+      <c r="N13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="127" t="s">
+      <c r="O13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="127" t="s">
+      <c r="P13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="127" t="s">
+      <c r="Q13" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="128" t="s">
+      <c r="R13" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="126" t="s">
+      <c r="S13" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="127" t="s">
+      <c r="T13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="127" t="s">
+      <c r="U13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="V13" s="127" t="s">
+      <c r="V13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="127" t="s">
+      <c r="W13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="X13" s="127" t="s">
+      <c r="X13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="Y13" s="127" t="s">
+      <c r="Y13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="127" t="s">
+      <c r="Z13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="128" t="s">
+      <c r="AA13" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" s="123"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="125"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="134"/>
+      <c r="AD13" s="134"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="135"/>
       <c r="AI13"/>
     </row>
     <row r="14" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -6503,316 +6379,316 @@
         <v>5</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="126" t="s">
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="126" t="s">
+      <c r="K14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="127" t="s">
+      <c r="T14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="127" t="s">
+      <c r="U14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="127" t="s">
+      <c r="V14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="127" t="s">
+      <c r="W14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="127" t="s">
+      <c r="X14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="Y14" s="127" t="s">
+      <c r="Y14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="Z14" s="127" t="s">
+      <c r="Z14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="AA14" s="128" t="s">
+      <c r="AA14" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="125"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="134"/>
+      <c r="AD14" s="134"/>
+      <c r="AE14" s="134"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="135"/>
     </row>
     <row r="15" spans="1:37" ht="12" x14ac:dyDescent="0.15">
       <c r="C15" s="50">
         <v>6</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="158" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="158" t="s">
+      <c r="K15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="124"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="124"/>
-      <c r="AG15" s="124"/>
-      <c r="AH15" s="125"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="134"/>
+      <c r="AD15" s="134"/>
+      <c r="AE15" s="134"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="135"/>
     </row>
     <row r="16" spans="1:37" ht="12" x14ac:dyDescent="0.15">
       <c r="C16" s="50">
         <v>7</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="158" t="s">
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R16" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="158" t="s">
+      <c r="K16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="124"/>
-      <c r="AG16" s="124"/>
-      <c r="AH16" s="125"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="135"/>
     </row>
     <row r="17" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C17" s="50">
         <v>8</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="158" t="s">
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R17" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="158" t="s">
+      <c r="K17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="T17" s="159"/>
-      <c r="U17" s="159"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="159"/>
-      <c r="Y17" s="159"/>
-      <c r="Z17" s="159"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="125"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="134"/>
+      <c r="AF17" s="134"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="135"/>
     </row>
     <row r="18" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C18" s="50">
         <v>9</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="158" t="s">
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R18" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="158" t="s">
+      <c r="K18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="123"/>
-      <c r="AC18" s="124"/>
-      <c r="AD18" s="124"/>
-      <c r="AE18" s="124"/>
-      <c r="AF18" s="124"/>
-      <c r="AG18" s="124"/>
-      <c r="AH18" s="125"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="135"/>
     </row>
     <row r="19" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C19" s="50">
@@ -6821,729 +6697,909 @@
       <c r="D19" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="158" t="s">
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="158" t="s">
+      <c r="K19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="159"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="125"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="135"/>
     </row>
     <row r="20" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C20" s="50">
         <v>11</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="158" t="s">
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R20" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="158" t="s">
+      <c r="K20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="159"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="125"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="135"/>
     </row>
     <row r="21" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C21" s="50">
         <v>12</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="125"/>
-      <c r="J21" s="158" t="s">
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q21" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="158" t="s">
+      <c r="K21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="124"/>
-      <c r="AG21" s="124"/>
-      <c r="AH21" s="125"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="135"/>
     </row>
     <row r="22" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C22" s="50">
         <v>13</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="158" t="s">
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q22" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="158" t="s">
+      <c r="K22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
-      <c r="Y22" s="159"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="123"/>
-      <c r="AC22" s="124"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="124"/>
-      <c r="AG22" s="124"/>
-      <c r="AH22" s="125"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="121"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="135"/>
     </row>
     <row r="23" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C23" s="50">
         <v>14</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="158" t="s">
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="158" t="s">
+      <c r="K23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="159"/>
-      <c r="Y23" s="159"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="123"/>
-      <c r="AC23" s="124"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="125"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="132"/>
+      <c r="V23" s="132"/>
+      <c r="W23" s="132"/>
+      <c r="X23" s="132"/>
+      <c r="Y23" s="132"/>
+      <c r="Z23" s="132"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="135"/>
     </row>
     <row r="24" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C24" s="50">
         <v>15</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="158" t="s">
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q24" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="158" t="s">
+      <c r="K24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="T24" s="159"/>
-      <c r="U24" s="159"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="159"/>
-      <c r="X24" s="159"/>
-      <c r="Y24" s="159"/>
-      <c r="Z24" s="159"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="123"/>
-      <c r="AC24" s="124"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="124"/>
-      <c r="AG24" s="124"/>
-      <c r="AH24" s="125"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="135"/>
     </row>
     <row r="25" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C25" s="50">
         <v>16</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="158" t="s">
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q25" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R25" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S25" s="158" t="s">
+      <c r="K25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="T25" s="159"/>
-      <c r="U25" s="159"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="159"/>
-      <c r="Z25" s="159"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="123"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="124"/>
-      <c r="AH25" s="125"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="121"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="135"/>
     </row>
     <row r="26" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C26" s="50">
         <v>17</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125"/>
-      <c r="J26" s="158" t="s">
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="K26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q26" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R26" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S26" s="158" t="s">
+      <c r="K26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="123"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="124"/>
-      <c r="AG26" s="124"/>
-      <c r="AH26" s="125"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="133"/>
+      <c r="AB26" s="121"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="135"/>
     </row>
     <row r="27" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C27" s="50">
         <v>18</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="158" t="s">
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q27" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S27" s="158" t="s">
+      <c r="K27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="123"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="124"/>
-      <c r="AG27" s="124"/>
-      <c r="AH27" s="125"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="135"/>
     </row>
     <row r="28" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C28" s="50">
         <v>19</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="158" t="s">
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="K28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q28" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="158" t="s">
+      <c r="K28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="124"/>
-      <c r="AG28" s="124"/>
-      <c r="AH28" s="125"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C29" s="50">
         <v>20</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="158" t="s">
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q29" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S29" s="158" t="s">
+      <c r="K29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="123"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="125"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="133"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="135"/>
     </row>
     <row r="30" spans="3:34" ht="12" x14ac:dyDescent="0.15">
       <c r="C30" s="50">
         <v>21</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="158" t="s">
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q30" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="R30" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="S30" s="158" t="s">
+      <c r="K30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="123"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="124"/>
-      <c r="AG30" s="124"/>
-      <c r="AH30" s="125"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="135"/>
+    </row>
+    <row r="31" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="C31" s="50">
+        <v>22</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="133"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="134"/>
+      <c r="AD31" s="134"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="135"/>
+    </row>
+    <row r="32" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="C32" s="50">
+        <v>23</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="133"/>
+      <c r="AB32" s="119"/>
+      <c r="AC32" s="129"/>
+      <c r="AD32" s="129"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="129"/>
+      <c r="AH32" s="130"/>
+    </row>
+    <row r="33" spans="3:34" ht="12" x14ac:dyDescent="0.15">
+      <c r="C33" s="50">
+        <v>24</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="133"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="129"/>
+      <c r="AD33" s="129"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="129"/>
+      <c r="AG33" s="129"/>
+      <c r="AH33" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="119">
     <mergeCell ref="E29:I29"/>
     <mergeCell ref="J29:R29"/>
     <mergeCell ref="S29:AA29"/>
     <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="S30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:R31"/>
+    <mergeCell ref="S31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="J27:R27"/>
     <mergeCell ref="S27:AA27"/>
@@ -7552,6 +7608,10 @@
     <mergeCell ref="J28:R28"/>
     <mergeCell ref="S28:AA28"/>
     <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="S30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="J25:R25"/>
     <mergeCell ref="S25:AA25"/>
@@ -7584,6 +7644,9 @@
     <mergeCell ref="J20:R20"/>
     <mergeCell ref="S20:AA20"/>
     <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="J13:R13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="AB14:AH14"/>
     <mergeCell ref="E17:I17"/>
     <mergeCell ref="J17:R17"/>
     <mergeCell ref="S17:AA17"/>
@@ -7600,22 +7663,14 @@
     <mergeCell ref="J16:R16"/>
     <mergeCell ref="S16:AA16"/>
     <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="J12:R12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:R11"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="S14:AA14"/>
-    <mergeCell ref="J14:R14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="S13:AA13"/>
-    <mergeCell ref="J13:R13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7632,19 +7687,32 @@
     <mergeCell ref="AB8:AH9"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="S32:AA32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:R33"/>
+    <mergeCell ref="S33:AA33"/>
+    <mergeCell ref="AB33:AH33"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="J10:R10"/>
     <mergeCell ref="S10:AA10"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="J12:R12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:R11"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="S14:AA14"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="S13:AA13"/>
   </mergeCells>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
